--- a/ExcelUtility/resources/TestData.xlsx
+++ b/ExcelUtility/resources/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7935" windowWidth="20055" xWindow="240" yWindow="75"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="UserData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Credentials" r:id="rId1" sheetId="1"/>
+    <sheet name="UserData" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -118,12 +118,28 @@
   </si>
   <si>
     <t>fn10@test.com</t>
+  </si>
+  <si>
+    <t>FirstName11</t>
+  </si>
+  <si>
+    <t>LastName11</t>
+  </si>
+  <si>
+    <t>FirstName11@test.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -172,23 +188,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -197,10 +213,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -356,7 +372,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -365,13 +381,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -381,7 +397,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -390,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -399,7 +415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,12 +425,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -445,7 +461,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -464,7 +480,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -483,13 +499,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
@@ -497,10 +513,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -653,24 +669,52 @@
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <v>7812345687</v>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="C9" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="C8"/>
+    <hyperlink r:id="rId6" ref="C10"/>
+    <hyperlink r:id="rId7" ref="C5"/>
+    <hyperlink r:id="rId8" ref="C7"/>
+    <hyperlink r:id="rId9" ref="C9"/>
+    <hyperlink r:id="rId10" ref="C11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
@@ -683,6 +727,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>